--- a/dataframe.xlsx
+++ b/dataframe.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataAnalytics\TAMS65_Project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006C561E-9196-49F0-8073-48D73D1A2017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="4704" yWindow="3720" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Result" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>x1</t>
   </si>
@@ -24,21 +30,12 @@
   <si>
     <t>y</t>
   </si>
-  <si>
-    <t>z1</t>
-  </si>
-  <si>
-    <t>z2</t>
-  </si>
-  <si>
-    <t>mu</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,13 +98,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -145,7 +150,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -179,6 +184,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -213,9 +219,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -388,14 +395,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -405,17 +414,8 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>8135</v>
       </c>
@@ -423,19 +423,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>92.1281</v>
-      </c>
-      <c r="D2">
-        <v>8.135</v>
-      </c>
-      <c r="E2">
-        <v>8.135</v>
-      </c>
-      <c r="F2">
-        <v>97.7314131427339</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>92.128100000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1629</v>
       </c>
@@ -443,19 +434,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>52.3726</v>
-      </c>
-      <c r="D3">
-        <v>1.629</v>
-      </c>
-      <c r="E3">
-        <v>1.629</v>
-      </c>
-      <c r="F3">
-        <v>38.93081868667689</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>52.372599999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2824</v>
       </c>
@@ -465,17 +447,8 @@
       <c r="C4">
         <v>49.3202</v>
       </c>
-      <c r="D4">
-        <v>2.824</v>
-      </c>
-      <c r="E4">
-        <v>2.824</v>
-      </c>
-      <c r="F4">
-        <v>49.73111231947556</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>9780</v>
       </c>
@@ -485,17 +458,8 @@
       <c r="C5">
         <v>195.8212</v>
       </c>
-      <c r="D5">
-        <v>9.779999999999999</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>201.6683178554934</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>8856</v>
       </c>
@@ -505,17 +469,8 @@
       <c r="C6">
         <v>100.8019</v>
       </c>
-      <c r="D6">
-        <v>8.856</v>
-      </c>
-      <c r="E6">
-        <v>8.856</v>
-      </c>
-      <c r="F6">
-        <v>104.2477409328994</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10387</v>
       </c>
@@ -525,17 +480,8 @@
       <c r="C7">
         <v>113.7111</v>
       </c>
-      <c r="D7">
-        <v>10.387</v>
-      </c>
-      <c r="E7">
-        <v>10.387</v>
-      </c>
-      <c r="F7">
-        <v>118.084769846552</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4002</v>
       </c>
@@ -543,19 +489,10 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>54.588</v>
-      </c>
-      <c r="D8">
-        <v>4.002</v>
-      </c>
-      <c r="E8">
-        <v>4.002</v>
-      </c>
-      <c r="F8">
-        <v>60.37776160770719</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>54.588000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9572</v>
       </c>
@@ -565,17 +502,8 @@
       <c r="C9">
         <v>216.1337</v>
       </c>
-      <c r="D9">
-        <v>9.571999999999999</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>197.8941122881936</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9177</v>
       </c>
@@ -583,19 +511,10 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>122.3345</v>
-      </c>
-      <c r="D10">
-        <v>9.177</v>
-      </c>
-      <c r="E10">
-        <v>9.177</v>
-      </c>
-      <c r="F10">
-        <v>107.1489076744295</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>122.33450000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9304</v>
       </c>
@@ -603,19 +522,10 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>198.1762</v>
-      </c>
-      <c r="D11">
-        <v>9.304</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>193.0311935764804</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>198.17619999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>5354</v>
       </c>
@@ -623,19 +533,10 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>71.0677</v>
-      </c>
-      <c r="D12">
-        <v>5.354</v>
-      </c>
-      <c r="E12">
-        <v>5.354</v>
-      </c>
-      <c r="F12">
-        <v>72.59700595209532</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>71.067700000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>6405</v>
       </c>
@@ -645,17 +546,8 @@
       <c r="C13">
         <v>129.5224</v>
       </c>
-      <c r="D13">
-        <v>6.405</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>140.4282034822395</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>10135</v>
       </c>
@@ -665,17 +557,8 @@
       <c r="C14">
         <v>121.4999</v>
       </c>
-      <c r="D14">
-        <v>10.135</v>
-      </c>
-      <c r="E14">
-        <v>10.135</v>
-      </c>
-      <c r="F14">
-        <v>115.8072183859116</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>6977</v>
       </c>
@@ -685,17 +568,8 @@
       <c r="C15">
         <v>144.0813</v>
       </c>
-      <c r="D15">
-        <v>6.977</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>150.8072687923139</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1068</v>
       </c>
@@ -703,19 +577,10 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>32.1191</v>
-      </c>
-      <c r="D16">
-        <v>1.068</v>
-      </c>
-      <c r="E16">
-        <v>1.068</v>
-      </c>
-      <c r="F16">
-        <v>33.86055531596554</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>32.119100000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3723</v>
       </c>
@@ -725,17 +590,8 @@
       <c r="C17">
         <v>93.512</v>
       </c>
-      <c r="D17">
-        <v>3.723</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>91.76272592696031</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2374</v>
       </c>
@@ -743,19 +599,10 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>63.5831</v>
-      </c>
-      <c r="D18">
-        <v>2.374</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>67.28482539673232</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>63.583100000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>8086</v>
       </c>
@@ -763,19 +610,10 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <v>97.6262</v>
-      </c>
-      <c r="D19">
-        <v>8.086</v>
-      </c>
-      <c r="E19">
-        <v>8.086</v>
-      </c>
-      <c r="F19">
-        <v>97.28855591427605</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>97.626199999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1415</v>
       </c>
@@ -783,19 +621,10 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>47.5831</v>
-      </c>
-      <c r="D20">
-        <v>1.415</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>49.88356030519142</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>47.583100000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>5367</v>
       </c>
@@ -803,19 +632,10 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>90.0363</v>
-      </c>
-      <c r="D21">
-        <v>5.367</v>
-      </c>
-      <c r="E21">
-        <v>5.367</v>
-      </c>
-      <c r="F21">
-        <v>72.71449868617597</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>90.036299999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>7803</v>
       </c>
@@ -825,17 +645,8 @@
       <c r="C22">
         <v>183.3605</v>
       </c>
-      <c r="D22">
-        <v>7.803</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>165.7952197470717</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>6517</v>
       </c>
@@ -843,19 +654,10 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>100.4154</v>
-      </c>
-      <c r="D23">
-        <v>6.517</v>
-      </c>
-      <c r="E23">
-        <v>6.517</v>
-      </c>
-      <c r="F23">
-        <v>83.10808670100315</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>100.41540000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2779</v>
       </c>
@@ -865,17 +667,8 @@
       <c r="C24">
         <v>54.8476</v>
       </c>
-      <c r="D24">
-        <v>2.779</v>
-      </c>
-      <c r="E24">
-        <v>2.779</v>
-      </c>
-      <c r="F24">
-        <v>49.32440670150405</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1855</v>
       </c>
@@ -883,19 +676,10 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>56.3742</v>
-      </c>
-      <c r="D25">
-        <v>1.855</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>57.86745669755637</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>56.374200000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2867</v>
       </c>
@@ -903,19 +687,10 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>47.771</v>
-      </c>
-      <c r="D26">
-        <v>2.867</v>
-      </c>
-      <c r="E26">
-        <v>2.867</v>
-      </c>
-      <c r="F26">
-        <v>50.11974213220387</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>47.771000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>4687</v>
       </c>
@@ -923,19 +698,10 @@
         <v>1</v>
       </c>
       <c r="C27">
-        <v>64.2111</v>
-      </c>
-      <c r="D27">
-        <v>4.687</v>
-      </c>
-      <c r="E27">
-        <v>4.687</v>
-      </c>
-      <c r="F27">
-        <v>66.56872490349558</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>64.211100000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>10310</v>
       </c>
@@ -945,17 +711,8 @@
       <c r="C28">
         <v>121.9782</v>
       </c>
-      <c r="D28">
-        <v>10.31</v>
-      </c>
-      <c r="E28">
-        <v>10.31</v>
-      </c>
-      <c r="F28">
-        <v>117.3888513446896</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>7966</v>
       </c>
@@ -963,19 +720,10 @@
         <v>1</v>
       </c>
       <c r="C29">
-        <v>88.5924</v>
-      </c>
-      <c r="D29">
-        <v>7.966</v>
-      </c>
-      <c r="E29">
-        <v>7.966</v>
-      </c>
-      <c r="F29">
-        <v>96.20400759968538</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>88.592399999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2663</v>
       </c>
@@ -983,19 +731,10 @@
         <v>1</v>
       </c>
       <c r="C30">
-        <v>47.1797</v>
-      </c>
-      <c r="D30">
-        <v>2.663</v>
-      </c>
-      <c r="E30">
-        <v>2.663</v>
-      </c>
-      <c r="F30">
-        <v>48.27600999739975</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>47.179699999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>8735</v>
       </c>
@@ -1003,19 +742,10 @@
         <v>1</v>
       </c>
       <c r="C31">
-        <v>90.6112</v>
-      </c>
-      <c r="D31">
-        <v>8.734999999999999</v>
-      </c>
-      <c r="E31">
-        <v>8.734999999999999</v>
-      </c>
-      <c r="F31">
-        <v>103.1541547156872</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>90.611199999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>5132</v>
       </c>
@@ -1023,19 +753,10 @@
         <v>1</v>
       </c>
       <c r="C32">
-        <v>76.3974</v>
-      </c>
-      <c r="D32">
-        <v>5.132</v>
-      </c>
-      <c r="E32">
-        <v>5.132</v>
-      </c>
-      <c r="F32">
-        <v>70.59059157010259</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>76.397400000000005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>8086</v>
       </c>
@@ -1043,19 +764,10 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>168.701</v>
-      </c>
-      <c r="D33">
-        <v>8.086</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>170.9303167448883</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>168.70099999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>4321</v>
       </c>
@@ -1063,19 +775,10 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>88.81619999999999</v>
-      </c>
-      <c r="D34">
-        <v>4.321</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>102.6135669329472</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>88.816199999999995</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>6510</v>
       </c>
@@ -1083,19 +786,10 @@
         <v>1</v>
       </c>
       <c r="C35">
-        <v>75.7976</v>
-      </c>
-      <c r="D35">
-        <v>6.51</v>
-      </c>
-      <c r="E35">
-        <v>6.51</v>
-      </c>
-      <c r="F35">
-        <v>83.044821382652</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>75.797600000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>10964</v>
       </c>
@@ -1103,19 +797,10 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>223.0379</v>
-      </c>
-      <c r="D36">
-        <v>10.964</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>223.1522572385846</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>223.03790000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>7671</v>
       </c>
@@ -1123,19 +808,10 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>157.1281</v>
-      </c>
-      <c r="D37">
-        <v>7.671</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>163.4000508293622</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>157.12809999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>9889</v>
       </c>
@@ -1145,17 +821,8 @@
       <c r="C38">
         <v>202.0626</v>
       </c>
-      <c r="D38">
-        <v>9.888999999999999</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>203.646146734511</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>4582</v>
       </c>
@@ -1165,17 +832,8 @@
       <c r="C39">
         <v>113.4194</v>
       </c>
-      <c r="D39">
-        <v>4.582</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>107.3494691111455</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>5340</v>
       </c>
@@ -1185,17 +843,8 @@
       <c r="C40">
         <v>120.738</v>
       </c>
-      <c r="D40">
-        <v>5.34</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>121.1035451689015</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>8330</v>
       </c>
@@ -1203,19 +852,10 @@
         <v>1</v>
       </c>
       <c r="C41">
-        <v>79.1987</v>
-      </c>
-      <c r="D41">
-        <v>8.33</v>
-      </c>
-      <c r="E41">
-        <v>8.33</v>
-      </c>
-      <c r="F41">
-        <v>99.49380415394371</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>79.198700000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>10945</v>
       </c>
@@ -1225,17 +865,8 @@
       <c r="C42">
         <v>132.9931</v>
       </c>
-      <c r="D42">
-        <v>10.945</v>
-      </c>
-      <c r="E42">
-        <v>10.945</v>
-      </c>
-      <c r="F42">
-        <v>123.1279195093985</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>5766</v>
       </c>
@@ -1243,19 +874,10 @@
         <v>1</v>
       </c>
       <c r="C43">
-        <v>74.08880000000001</v>
-      </c>
-      <c r="D43">
-        <v>5.766</v>
-      </c>
-      <c r="E43">
-        <v>5.766</v>
-      </c>
-      <c r="F43">
-        <v>76.32062183218991</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>74.088800000000006</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>4315</v>
       </c>
@@ -1263,19 +885,10 @@
         <v>1</v>
       </c>
       <c r="C44">
-        <v>66.485</v>
-      </c>
-      <c r="D44">
-        <v>4.315</v>
-      </c>
-      <c r="E44">
-        <v>4.315</v>
-      </c>
-      <c r="F44">
-        <v>63.20662512826451</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>66.484999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>7053</v>
       </c>
@@ -1283,19 +896,10 @@
         <v>0</v>
       </c>
       <c r="C45">
-        <v>142.6488</v>
-      </c>
-      <c r="D45">
-        <v>7.053</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>152.1863054419042</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>142.64879999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>8731</v>
       </c>
@@ -1303,19 +907,10 @@
         <v>1</v>
       </c>
       <c r="C46">
-        <v>97.0059</v>
-      </c>
-      <c r="D46">
-        <v>8.731</v>
-      </c>
-      <c r="E46">
-        <v>8.731</v>
-      </c>
-      <c r="F46">
-        <v>103.1180031052008</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>97.005899999999997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>4856</v>
       </c>
@@ -1323,19 +918,10 @@
         <v>1</v>
       </c>
       <c r="C47">
-        <v>75.2141</v>
-      </c>
-      <c r="D47">
-        <v>4.856</v>
-      </c>
-      <c r="E47">
-        <v>4.856</v>
-      </c>
-      <c r="F47">
-        <v>68.09613044654407</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>75.214100000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>3038</v>
       </c>
@@ -1343,19 +929,10 @@
         <v>1</v>
       </c>
       <c r="C48">
-        <v>36.0923</v>
-      </c>
-      <c r="D48">
-        <v>3.038</v>
-      </c>
-      <c r="E48">
-        <v>3.038</v>
-      </c>
-      <c r="F48">
-        <v>51.66522348049555</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>36.092300000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>4866</v>
       </c>
@@ -1365,17 +942,8 @@
       <c r="C49">
         <v>116.7343</v>
       </c>
-      <c r="D49">
-        <v>4.866</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>112.5027113280356</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1650</v>
       </c>
@@ -1383,19 +951,10 @@
         <v>0</v>
       </c>
       <c r="C50">
-        <v>67.6298</v>
-      </c>
-      <c r="D50">
-        <v>1.65</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>54.14768678747724</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>67.629800000000003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>5323</v>
       </c>
@@ -1404,15 +963,6 @@
       </c>
       <c r="C51">
         <v>114.0292</v>
-      </c>
-      <c r="D51">
-        <v>5.323</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>120.7950764446511</v>
       </c>
     </row>
   </sheetData>
